--- a/ExcelFiles/Statusi Sherbimit.xlsx
+++ b/ExcelFiles/Statusi Sherbimit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\IdeaProjects\TestimTemp\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43A8FBF-E717-4EA9-9941-8929E4684481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28664468-7B26-4B7D-AE0B-3EC774B802F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="-18270" windowWidth="23040" windowHeight="8970" xr2:uid="{AF40D6F3-C384-4093-AD10-2C6B76FDF766}"/>
+    <workbookView xWindow="10020" yWindow="-17055" windowWidth="23040" windowHeight="8970" xr2:uid="{AF40D6F3-C384-4093-AD10-2C6B76FDF766}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ExcelFiles/Statusi Sherbimit.xlsx
+++ b/ExcelFiles/Statusi Sherbimit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\IdeaProjects\TestimTemp\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28664468-7B26-4B7D-AE0B-3EC774B802F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1B247C-3262-4AD7-889C-DA31B9EFFBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="-17055" windowWidth="23040" windowHeight="8970" xr2:uid="{AF40D6F3-C384-4093-AD10-2C6B76FDF766}"/>
+    <workbookView xWindow="1572" yWindow="2040" windowWidth="23040" windowHeight="8976" xr2:uid="{AF40D6F3-C384-4093-AD10-2C6B76FDF766}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Statusi i Aplikimit</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Në proçes kthim përgjigje</t>
-  </si>
-  <si>
-    <t>Aplikim Duplikat</t>
   </si>
   <si>
     <t>Lëvuar Shërbimi</t>
@@ -455,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35E5E2A-25E4-456B-A934-5791CD1F0418}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,11 +523,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
